--- a/Submissions/HW1_Headley/HW1_model_Headley.xlsx
+++ b/Submissions/HW1_Headley/HW1_model_Headley.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GW Modeling Repository\homework-justinheadley\Working\HW1_BoxModel_Excel\Starter_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Documents\GW Modeling Repository\homework-justinheadley\Submissions\HW1_Headley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1FA2CB-7710-48C9-B84C-229CEE7F07CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E9CDE2-C3F8-4685-8E08-904C393104C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="789" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,34 @@
     <sheet name="HETEROinputs" sheetId="4" r:id="rId4"/>
     <sheet name="hetero model and key plot" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'hetero model and key plot'!$M$9</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
   <si>
     <t>dz</t>
   </si>
@@ -152,6 +180,9 @@
   </si>
   <si>
     <t>Homogeneous Model</t>
+  </si>
+  <si>
+    <t>dΨ</t>
   </si>
 </sst>
 </file>
@@ -425,7 +456,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,6 +565,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1515,37 +1552,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.26883228789319</c:v>
+                  <c:v>94.856801146486418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.537871288528848</c:v>
+                  <c:v>89.713646522097605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.80719064292289</c:v>
+                  <c:v>84.570552516624346</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.076838548375314</c:v>
+                  <c:v>79.427530536068303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.346836123034244</c:v>
+                  <c:v>74.284586587014317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.617177834348674</c:v>
+                  <c:v>69.141721237336185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.32024966816536</c:v>
+                  <c:v>61.427497522145991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.455906072785869</c:v>
+                  <c:v>51.141930052248128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.591780413757398</c:v>
+                  <c:v>40.85641307956265</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.727803895560928</c:v>
+                  <c:v>30.570930566500614</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.863901947780464</c:v>
+                  <c:v>20.285465283250307</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>10</c:v>
@@ -1627,37 +1664,37 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.26883228789319</c:v>
+                  <c:v>39.856801146486418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.537871288528848</c:v>
+                  <c:v>39.713646522097605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.80719064292289</c:v>
+                  <c:v>39.570552516624346</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.076838548375314</c:v>
+                  <c:v>39.427530536068303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.346836123034244</c:v>
+                  <c:v>39.284586587014317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.617177834348674</c:v>
+                  <c:v>39.141721237336185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3202496681653599</c:v>
+                  <c:v>36.427497522145991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.4559060727858686</c:v>
+                  <c:v>31.141930052248128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5917804137573981</c:v>
+                  <c:v>25.85641307956265</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7278038955609283</c:v>
+                  <c:v>20.570930566500614</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.8639019477804641</c:v>
+                  <c:v>15.285465283250307</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>10</c:v>
@@ -2018,45 +2055,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'hetero model and key plot'!$K$6:$K$18</c:f>
+              <c:f>'hetero model and key plot'!$L$6:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>9.7311677121068099E-3</c:v>
+                  <c:v>1.0286397707027163E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7309609993643416E-3</c:v>
+                  <c:v>1.0286309248777627E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7306806456059578E-3</c:v>
+                  <c:v>1.0286188010946518E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7303520945475758E-3</c:v>
+                  <c:v>1.0286043961112086E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7300024253410694E-3</c:v>
+                  <c:v>1.0285887898107972E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7296582886855706E-3</c:v>
+                  <c:v>1.0285730699356264E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7292375549110858E-3</c:v>
+                  <c:v>1.0285631620253591E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.728687190758983E-3</c:v>
+                  <c:v>1.0285567469897863E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7282513180569404E-3</c:v>
+                  <c:v>1.0285516972685477E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.72795303639294E-3</c:v>
+                  <c:v>1.0285482513062036E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.7278038955609276E-3</c:v>
+                  <c:v>1.0285465283250307E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.7278038955609276E-3</c:v>
+                  <c:v>1.0285465283250307E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3297,37 +3334,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.26883228789319</c:v>
+                  <c:v>94.856801146486418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.537871288528848</c:v>
+                  <c:v>89.713646522097605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.80719064292289</c:v>
+                  <c:v>84.570552516624346</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.076838548375314</c:v>
+                  <c:v>79.427530536068303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.346836123034244</c:v>
+                  <c:v>74.284586587014317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.617177834348674</c:v>
+                  <c:v>69.141721237336185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.32024966816536</c:v>
+                  <c:v>61.427497522145991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.455906072785869</c:v>
+                  <c:v>51.141930052248128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.591780413757398</c:v>
+                  <c:v>40.85641307956265</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.727803895560928</c:v>
+                  <c:v>30.570930566500614</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.863901947780464</c:v>
+                  <c:v>20.285465283250307</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>10</c:v>
@@ -3409,37 +3446,37 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.26883228789319</c:v>
+                  <c:v>39.856801146486418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.537871288528848</c:v>
+                  <c:v>39.713646522097605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.80719064292289</c:v>
+                  <c:v>39.570552516624346</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.076838548375314</c:v>
+                  <c:v>39.427530536068303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.346836123034244</c:v>
+                  <c:v>39.284586587014317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.617177834348674</c:v>
+                  <c:v>39.141721237336185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3202496681653599</c:v>
+                  <c:v>36.427497522145991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.4559060727858686</c:v>
+                  <c:v>31.141930052248128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5917804137573981</c:v>
+                  <c:v>25.85641307956265</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7278038955609283</c:v>
+                  <c:v>20.570930566500614</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.8639019477804641</c:v>
+                  <c:v>15.285465283250307</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>10</c:v>
@@ -3800,45 +3837,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'hetero model and key plot'!$K$6:$K$18</c:f>
+              <c:f>'hetero model and key plot'!$L$6:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>9.7311677121068099E-3</c:v>
+                  <c:v>1.0286397707027163E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7309609993643416E-3</c:v>
+                  <c:v>1.0286309248777627E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7306806456059578E-3</c:v>
+                  <c:v>1.0286188010946518E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7303520945475758E-3</c:v>
+                  <c:v>1.0286043961112086E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7300024253410694E-3</c:v>
+                  <c:v>1.0285887898107972E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7296582886855706E-3</c:v>
+                  <c:v>1.0285730699356264E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7292375549110858E-3</c:v>
+                  <c:v>1.0285631620253591E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.728687190758983E-3</c:v>
+                  <c:v>1.0285567469897863E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7282513180569404E-3</c:v>
+                  <c:v>1.0285516972685477E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.72795303639294E-3</c:v>
+                  <c:v>1.0285482513062036E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.7278038955609276E-3</c:v>
+                  <c:v>1.0285465283250307E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.7278038955609276E-3</c:v>
+                  <c:v>1.0285465283250307E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4597,13 +4634,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4632,7 +4669,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -4773,7 +4810,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
@@ -4805,13 +4842,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>580305</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>95061</xdr:rowOff>
@@ -4829,7 +4866,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6867525" y="6372225"/>
+          <a:off x="7562850" y="6372225"/>
           <a:ext cx="5761905" cy="1514286"/>
           <a:chOff x="7096125" y="762000"/>
           <a:chExt cx="5761905" cy="1514286"/>
@@ -6325,7 +6362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD72258E-0A0D-45A6-8678-ABFE587C9DC9}">
   <dimension ref="B4:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6424,110 +6463,110 @@
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <f>IF(D16=1,+$D$11,+IF(D16=2,+$D$12,+$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ref="E17:E28" si="0">IF(D17=1,+$D$11,+IF(D17=2,+$D$12,+$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -6535,11 +6574,11 @@
         <v>16</v>
       </c>
       <c r="D28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
@@ -6572,9 +6611,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79530E76-209F-46D1-8EB4-A1FEE55031D1}">
-  <dimension ref="B1:V29"/>
+  <dimension ref="B1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6585,12 +6626,13 @@
     <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" customWidth="1"/>
-    <col min="13" max="15" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="16" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:22" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:23" ht="21" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
         <v>32</v>
       </c>
@@ -6599,23 +6641,23 @@
       <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="6"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="T2" s="6"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" s="18"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
-      <c r="Q3" s="36" t="s">
+      <c r="R3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="37"/>
       <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="T3" s="37"/>
+      <c r="U3" s="38"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" s="18"/>
       <c r="C4" s="14" t="s">
         <v>12</v>
@@ -6639,23 +6681,26 @@
         <v>35</v>
       </c>
       <c r="K4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="N4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="O4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="P4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="2"/>
+      <c r="R4" s="8"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="T4" s="2"/>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
@@ -6664,8 +6709,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D5" s="15">
-        <f>SUM(M7:M17)+0.5*(M6+M18)</f>
-        <v>6.5</v>
+        <f>SUM(N7:N17)+0.5*(N6+N18)</f>
+        <v>5.5</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
@@ -6673,19 +6718,20 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="L5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="2" t="s">
+      <c r="P5" s="20"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="9"/>
-    </row>
-    <row r="6" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
@@ -6694,8 +6740,8 @@
         <v>0.01</v>
       </c>
       <c r="D6" s="15">
-        <f>SUM(N7:N17)+0.5*(N6+N18)</f>
-        <v>5.5</v>
+        <f>SUM(O7:O17)+0.5*(O6+O18)</f>
+        <v>6.5</v>
       </c>
       <c r="F6" s="20">
         <f>F7+HETEROinputs!$D$8</f>
@@ -6703,11 +6749,11 @@
       </c>
       <c r="G6" s="20">
         <f>HETEROinputs!D16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="20">
         <f>IF(G6=1,+HETEROinputs!$D$11,+IF(G6=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I6" s="21">
         <f>HETEROinputs!D4</f>
@@ -6717,31 +6763,32 @@
         <f>I6-F6</f>
         <v>40</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="M6" s="20">
+      <c r="K6" s="39"/>
+      <c r="L6" s="20"/>
+      <c r="N6" s="20">
         <f>IF($G6=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <f>IF($G6=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="N6" s="20">
-        <f>IF($G6=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="20">
+      <c r="P6" s="20">
         <f>IF($G6=3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="8">
         <v>1</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="9">
+      <c r="T6" s="10"/>
+      <c r="U6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>30</v>
       </c>
@@ -6750,7 +6797,7 @@
         <v>1E-3</v>
       </c>
       <c r="D7" s="15">
-        <f>SUM(O7:O17)+0.5*(O6+O18)</f>
+        <f>SUM(P7:P17)+0.5*(P6+P18)</f>
         <v>0</v>
       </c>
       <c r="F7" s="20">
@@ -6759,48 +6806,52 @@
       </c>
       <c r="G7" s="20">
         <f>HETEROinputs!D17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="20">
         <f>IF(G7=1,+HETEROinputs!$D$11,+IF(G7=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" ref="I7:I17" ca="1" si="0">(I6*2/(1/H6+1/H7)+I8*2/(1/H7+1/H8))/(2/(1/H6+1/H7)+2/(1/H7+1/H8))</f>
-        <v>90.26883228789319</v>
+        <v>94.856801146486418</v>
       </c>
       <c r="J7" s="30">
         <f t="shared" ref="J7:J18" ca="1" si="1">I7-F7</f>
-        <v>35.26883228789319</v>
-      </c>
-      <c r="K7" s="26">
+        <v>39.856801146486418</v>
+      </c>
+      <c r="K7" s="39">
+        <f ca="1">J6-J7</f>
+        <v>0.14319885351358153</v>
+      </c>
+      <c r="L7" s="26">
         <f ca="1">(I6-I7)/HETEROinputs!$D$8*2/(1/H6+1/H7)</f>
-        <v>9.7311677121068099E-3</v>
-      </c>
-      <c r="M7" s="20">
-        <f t="shared" ref="M7:M18" si="2">IF($G7=1,1,0)</f>
+        <v>1.0286397707027163E-2</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" ref="N7:N18" si="2">IF($G7=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" ref="O7:O18" si="3">IF($G7=2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="N7" s="20">
-        <f t="shared" ref="N7:N18" si="3">IF($G7=2,1,0)</f>
+      <c r="P7" s="20">
+        <f t="shared" ref="P7:P18" si="4">IF($G7=3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="20">
-        <f t="shared" ref="O7:O18" si="4">IF($G7=3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="10"/>
-      <c r="T7" s="9">
+      <c r="T7" s="10"/>
+      <c r="U7" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -6810,54 +6861,58 @@
       </c>
       <c r="G8" s="20">
         <f>HETEROinputs!D18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="20">
         <f>IF(G8=1,+HETEROinputs!$D$11,+IF(G8=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I8" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>80.537871288528848</v>
+        <v>89.713646522097605</v>
       </c>
       <c r="J8" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>30.537871288528848</v>
-      </c>
-      <c r="K8" s="26">
+        <v>39.713646522097605</v>
+      </c>
+      <c r="K8" s="39">
+        <f t="shared" ref="K8:K17" ca="1" si="5">J7-J8</f>
+        <v>0.14315462438881355</v>
+      </c>
+      <c r="L8" s="26">
         <f ca="1">(I7-I8)/HETEROinputs!$D$8*2/(1/H7+1/H8)</f>
-        <v>9.7309609993643416E-3</v>
-      </c>
-      <c r="M8" s="20">
+        <v>1.0286309248777627E-2</v>
+      </c>
+      <c r="N8" s="20">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N8" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="20">
+      <c r="P8" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="9">
+      <c r="T8" s="10"/>
+      <c r="U8" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="14">
         <f>SUM(D5:D7)/(D5/C5+D6/C6+D7/C7)</f>
-        <v>6.4864864864864862E-3</v>
+        <v>6.8571428571428568E-3</v>
       </c>
       <c r="D9" s="15"/>
       <c r="F9" s="20">
@@ -6866,54 +6921,58 @@
       </c>
       <c r="G9" s="20">
         <f>HETEROinputs!D19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="20">
         <f>IF(G9=1,+HETEROinputs!$D$11,+IF(G9=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I9" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>70.80719064292289</v>
+        <v>84.570552516624346</v>
       </c>
       <c r="J9" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>25.80719064292289</v>
-      </c>
-      <c r="K9" s="26">
+        <v>39.570552516624346</v>
+      </c>
+      <c r="K9" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.14309400547325879</v>
+      </c>
+      <c r="L9" s="26">
         <f ca="1">(I8-I9)/HETEROinputs!$D$8*2/(1/H8+1/H9)</f>
-        <v>9.7306806456059578E-3</v>
-      </c>
-      <c r="M9" s="20">
+        <v>1.0286188010946518E-2</v>
+      </c>
+      <c r="N9" s="20">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N9" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
+      <c r="P9" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <v>4</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="9">
+      <c r="T9" s="10"/>
+      <c r="U9" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="16">
         <f>C9*(I6-I18)/(F6-F18)</f>
-        <v>9.7297297297297292E-3</v>
+        <v>1.0285714285714285E-2</v>
       </c>
       <c r="D10" s="17"/>
       <c r="F10" s="20">
@@ -6922,396 +6981,428 @@
       </c>
       <c r="G10" s="20">
         <f>HETEROinputs!D20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="20">
         <f>IF(G10=1,+HETEROinputs!$D$11,+IF(G10=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I10" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>61.076838548375314</v>
+        <v>79.427530536068303</v>
       </c>
       <c r="J10" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>21.076838548375314</v>
-      </c>
-      <c r="K10" s="26">
+        <v>39.427530536068303</v>
+      </c>
+      <c r="K10" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.14302198055604265</v>
+      </c>
+      <c r="L10" s="26">
         <f ca="1">(I9-I10)/HETEROinputs!$D$8*2/(1/H9+1/H10)</f>
-        <v>9.7303520945475758E-3</v>
-      </c>
-      <c r="M10" s="20">
+        <v>1.0286043961112086E-2</v>
+      </c>
+      <c r="N10" s="20">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N10" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
+      <c r="P10" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <v>5</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="9">
+      <c r="T10" s="10"/>
+      <c r="U10" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F11" s="20">
         <f>F12+HETEROinputs!$D$8</f>
         <v>35</v>
       </c>
       <c r="G11" s="20">
         <f>HETEROinputs!D21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="20">
         <f>IF(G11=1,+HETEROinputs!$D$11,+IF(G11=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I11" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>51.346836123034244</v>
+        <v>74.284586587014317</v>
       </c>
       <c r="J11" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>16.346836123034244</v>
-      </c>
-      <c r="K11" s="26">
+        <v>39.284586587014317</v>
+      </c>
+      <c r="K11" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.14294394905398633</v>
+      </c>
+      <c r="L11" s="26">
         <f ca="1">(I10-I11)/HETEROinputs!$D$8*2/(1/H10+1/H11)</f>
-        <v>9.7300024253410694E-3</v>
-      </c>
-      <c r="M11" s="20">
+        <v>1.0285887898107972E-2</v>
+      </c>
+      <c r="N11" s="20">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N11" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="20">
+      <c r="P11" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="R11" s="8">
         <v>6</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="9">
+      <c r="T11" s="10"/>
+      <c r="U11" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="F12" s="20">
         <f>F13+HETEROinputs!$D$8</f>
         <v>30</v>
       </c>
       <c r="G12" s="20">
         <f>HETEROinputs!D22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="20">
         <f>IF(G12=1,+HETEROinputs!$D$11,+IF(G12=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I12" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>41.617177834348674</v>
+        <v>69.141721237336185</v>
       </c>
       <c r="J12" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>11.617177834348674</v>
-      </c>
-      <c r="K12" s="26">
+        <v>39.141721237336185</v>
+      </c>
+      <c r="K12" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.14286534967813225</v>
+      </c>
+      <c r="L12" s="26">
         <f ca="1">(I11-I12)/HETEROinputs!$D$8*2/(1/H11+1/H12)</f>
-        <v>9.7296582886855706E-3</v>
-      </c>
-      <c r="M12" s="20">
+        <v>1.0285730699356264E-2</v>
+      </c>
+      <c r="N12" s="20">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="20">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N12" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="20">
+      <c r="P12" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="R12" s="8">
         <v>7</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="9">
+      <c r="T12" s="10"/>
+      <c r="U12" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="F13" s="20">
         <f>F14+HETEROinputs!$D$8</f>
         <v>25</v>
       </c>
       <c r="G13" s="20">
         <f>HETEROinputs!D23</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="20">
         <f>IF(G13=1,+HETEROinputs!$D$11,+IF(G13=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I13" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>34.32024966816536</v>
+        <v>61.427497522145991</v>
       </c>
       <c r="J13" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3202496681653599</v>
-      </c>
-      <c r="K13" s="26">
+        <v>36.427497522145991</v>
+      </c>
+      <c r="K13" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.7142237151901938</v>
+      </c>
+      <c r="L13" s="26">
         <f ca="1">(I12-I13)/HETEROinputs!$D$8*2/(1/H12+1/H13)</f>
-        <v>9.7292375549110858E-3</v>
-      </c>
-      <c r="M13" s="20">
+        <v>1.0285631620253591E-2</v>
+      </c>
+      <c r="N13" s="20">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="20">
+      <c r="P13" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <v>8</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="9">
+      <c r="T13" s="10"/>
+      <c r="U13" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="F14" s="20">
         <f>F15+HETEROinputs!$D$8</f>
         <v>20</v>
       </c>
       <c r="G14" s="20">
         <f>HETEROinputs!D24</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="20">
         <f>IF(G14=1,+HETEROinputs!$D$11,+IF(G14=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I14" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>29.455906072785869</v>
+        <v>51.141930052248128</v>
       </c>
       <c r="J14" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4559060727858686</v>
-      </c>
-      <c r="K14" s="26">
+        <v>31.141930052248128</v>
+      </c>
+      <c r="K14" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2855674698978632</v>
+      </c>
+      <c r="L14" s="26">
         <f ca="1">(I13-I14)/HETEROinputs!$D$8*2/(1/H13+1/H14)</f>
-        <v>9.728687190758983E-3</v>
-      </c>
-      <c r="M14" s="20">
+        <v>1.0285567469897863E-2</v>
+      </c>
+      <c r="N14" s="20">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="20">
+      <c r="P14" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="R14" s="8">
         <v>9</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="9">
+      <c r="T14" s="10"/>
+      <c r="U14" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="F15" s="20">
         <f>F16+HETEROinputs!$D$8</f>
         <v>15</v>
       </c>
       <c r="G15" s="20">
         <f>HETEROinputs!D25</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="20">
         <f>IF(G15=1,+HETEROinputs!$D$11,+IF(G15=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>24.591780413757398</v>
+        <v>40.85641307956265</v>
       </c>
       <c r="J15" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5917804137573981</v>
-      </c>
-      <c r="K15" s="26">
+        <v>25.85641307956265</v>
+      </c>
+      <c r="K15" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2855169726854783</v>
+      </c>
+      <c r="L15" s="26">
         <f ca="1">(I14-I15)/HETEROinputs!$D$8*2/(1/H14+1/H15)</f>
-        <v>9.7282513180569404E-3</v>
-      </c>
-      <c r="M15" s="20">
+        <v>1.0285516972685477E-2</v>
+      </c>
+      <c r="N15" s="20">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="20">
+      <c r="P15" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <v>10</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="9">
+      <c r="T15" s="10"/>
+      <c r="U15" s="9">
         <v>10</v>
       </c>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="F16" s="20">
         <f>F17+HETEROinputs!$D$8</f>
         <v>10</v>
       </c>
       <c r="G16" s="20">
         <f>HETEROinputs!D26</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="20">
         <f>IF(G16=1,+HETEROinputs!$D$11,+IF(G16=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I16" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>19.727803895560928</v>
+        <v>30.570930566500614</v>
       </c>
       <c r="J16" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7278038955609283</v>
-      </c>
-      <c r="K16" s="26">
+        <v>20.570930566500614</v>
+      </c>
+      <c r="K16" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2854825130620355</v>
+      </c>
+      <c r="L16" s="26">
         <f ca="1">(I15-I16)/HETEROinputs!$D$8*2/(1/H15+1/H16)</f>
-        <v>9.72795303639294E-3</v>
-      </c>
-      <c r="M16" s="20">
+        <v>1.0285482513062036E-2</v>
+      </c>
+      <c r="N16" s="20">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N16" s="20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="20">
+      <c r="P16" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <v>11</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="10"/>
-      <c r="T16" s="9">
+      <c r="T16" s="10"/>
+      <c r="U16" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="6:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:21" ht="15" x14ac:dyDescent="0.25">
       <c r="F17" s="20">
         <f>F18+HETEROinputs!$D$8</f>
         <v>5</v>
       </c>
       <c r="G17" s="20">
         <f>HETEROinputs!D27</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="20">
         <f>IF(G17=1,+HETEROinputs!$D$11,+IF(G17=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I17" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>14.863901947780464</v>
+        <v>20.285465283250307</v>
       </c>
       <c r="J17" s="30">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8639019477804641</v>
-      </c>
-      <c r="K17" s="26">
+        <v>15.285465283250307</v>
+      </c>
+      <c r="K17" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2854652832503071</v>
+      </c>
+      <c r="L17" s="26">
         <f ca="1">(I16-I17)/HETEROinputs!$D$8*2/(1/H16+1/H17)</f>
-        <v>9.7278038955609276E-3</v>
-      </c>
-      <c r="M17" s="20">
+        <v>1.0285465283250307E-2</v>
+      </c>
+      <c r="N17" s="20">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17" s="20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="20">
+      <c r="P17" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="R17" s="8">
         <v>12</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="10"/>
-      <c r="T17" s="9">
+      <c r="T17" s="10"/>
+      <c r="U17" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="6:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:21" ht="15" x14ac:dyDescent="0.25">
       <c r="F18" s="20">
         <f>HETEROinputs!D9</f>
         <v>0</v>
       </c>
       <c r="G18" s="20">
         <f>HETEROinputs!D28</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="20">
         <f>IF(G18=1,+HETEROinputs!$D$11,+IF(G18=2,+HETEROinputs!$D$12,+HETEROinputs!$D$13))</f>
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I18" s="21">
         <f>HETEROinputs!D5</f>
@@ -7321,40 +7412,44 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="40">
+        <f t="shared" ref="K7:K18" si="6">J18-J19</f>
+        <v>10</v>
+      </c>
+      <c r="L18" s="26">
         <f ca="1">(I17-I18)/HETEROinputs!$D$8*2/(1/H17+1/H18)</f>
-        <v>9.7278038955609276E-3</v>
-      </c>
-      <c r="M18" s="20">
+        <v>1.0285465283250307E-2</v>
+      </c>
+      <c r="N18" s="20">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="20">
+      <c r="P18" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="R18" s="11">
         <v>13</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="S18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="13">
+      <c r="T18" s="12"/>
+      <c r="U18" s="13">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="P29" s="3"/>
+    <row r="29" spans="6:21" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
